--- a/target/test-classes/excel/data.xlsx
+++ b/target/test-classes/excel/data.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
     <sheet name="DATA" sheetId="2" r:id="rId2"/>
+    <sheet name="DATAPROVIDER" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
   <si>
     <t>testname</t>
   </si>
@@ -409,7 +410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -606,4 +607,41 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>